--- a/Src/assets/texts/texts.xlsx
+++ b/Src/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="50">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -1633,7 +1633,7 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
         <v>44</v>

--- a/Src/assets/texts/texts.xlsx
+++ b/Src/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="48">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -1619,23 +1619,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" t="s">
-        <v>47</v>
-      </c>
-    </row>
+    <row r="4"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>
